--- a/data/output/FV2504_FV2410/UTILMD/44139.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44139.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5256" uniqueCount="407">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5277" uniqueCount="407">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1334,6 +1334,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U227" totalsRowShown="0">
+  <autoFilter ref="A1:U227"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1623,7 +1653,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12795,5 +12828,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44139.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44139.xlsx
@@ -2419,7 +2419,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2927,7 +2927,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4515,7 +4515,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4957,7 +4957,7 @@
         <v>387</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5119,7 +5119,7 @@
         <v>387</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5523,7 +5523,7 @@
         <v>389</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5735,7 +5735,7 @@
         <v>389</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5955,7 +5955,7 @@
         <v>389</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -6229,7 +6229,7 @@
         <v>392</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6449,7 +6449,7 @@
         <v>389</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -6669,7 +6669,7 @@
         <v>394</v>
       </c>
       <c r="L83" s="4"/>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N83" s="2" t="s">
@@ -6815,7 +6815,7 @@
         <v>389</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -7015,7 +7015,7 @@
         <v>389</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -7569,7 +7569,7 @@
         <v>389</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="K104" s="2"/>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7933,7 +7933,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -8153,7 +8153,7 @@
       </c>
       <c r="K112" s="2"/>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8367,7 +8367,7 @@
         <v>396</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8733,7 +8733,7 @@
         <v>398</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -9145,7 +9145,7 @@
         <v>399</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9293,7 +9293,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="K140" s="2"/>
       <c r="L140" s="4"/>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N140" s="2" t="s">
@@ -10135,7 +10135,7 @@
         <v>399</v>
       </c>
       <c r="L150" s="4"/>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N150" s="2" t="s">
@@ -10539,7 +10539,7 @@
         <v>403</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10847,7 +10847,7 @@
         <v>389</v>
       </c>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N167" s="2" t="s">
@@ -11265,7 +11265,7 @@
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -11421,7 +11421,7 @@
         <v>389</v>
       </c>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11725,7 +11725,7 @@
         <v>405</v>
       </c>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -12037,7 +12037,7 @@
         <v>405</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -12569,7 +12569,7 @@
         <v>405</v>
       </c>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -13101,7 +13101,7 @@
         <v>405</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -13633,7 +13633,7 @@
         <v>389</v>
       </c>
       <c r="L217" s="4"/>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N217" s="2" t="s">
@@ -14053,7 +14053,7 @@
       </c>
       <c r="K225" s="2"/>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N225" s="2"/>
